--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Cpp\CppGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC76521-F5FC-4568-9173-37C82D4C8F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185B685-AFAB-4003-A3B4-8A84464DAD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{45E32E4A-C2CB-4BE9-8F0A-6145A7CB6F1C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NEED</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Sebbe</t>
+  </si>
+  <si>
+    <t>remove globals</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +511,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PXL\CPP\QtProjects\CppTaak22\CppGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185B685-AFAB-4003-A3B4-8A84464DAD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D89B8-0F55-4A8B-8645-6B2F6C88CDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{45E32E4A-C2CB-4BE9-8F0A-6145A7CB6F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{45E32E4A-C2CB-4BE9-8F0A-6145A7CB6F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NEED</t>
   </si>
@@ -65,13 +65,22 @@
     <t>GAME OVER screen</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
     <t>Sebbe</t>
   </si>
   <si>
     <t>remove globals</t>
+  </si>
+  <si>
+    <t>Start Menu (options, start, audio on/off, (playername), ...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In game keys (P voor pauze, key M voor mute, …) </t>
+  </si>
+  <si>
+    <t>lijst Bart checken wat we missen</t>
+  </si>
+  <si>
+    <t>INDY</t>
   </si>
 </sst>
 </file>
@@ -134,8 +143,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,7 +459,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,28 +511,35 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PXL\CPP\QtProjects\CppTaak22\CppGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\schooljaar2\CppGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D89B8-0F55-4A8B-8645-6B2F6C88CDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179EAEBD-5888-4B44-BB33-9695E6A21D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{45E32E4A-C2CB-4BE9-8F0A-6145A7CB6F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45E32E4A-C2CB-4BE9-8F0A-6145A7CB6F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>NEED</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>INDY</t>
+  </si>
+  <si>
+    <t>meteor</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +116,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -139,6 +154,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -459,7 +480,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +548,7 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3"/>
@@ -537,14 +558,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
@@ -552,6 +575,9 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
